--- a/Tests_run_200.xlsx
+++ b/Tests_run_200.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -39,11 +39,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFA500"/>
       </patternFill>
     </fill>
   </fills>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -437,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD36"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,6 +590,11 @@
           <t>VREF ICE</t>
         </is>
       </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>OEI Gradient</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -678,7 +677,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
         <v>107.4</v>
@@ -703,6 +702,9 @@
       </c>
       <c r="AD2" t="n">
         <v>98</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>10.19</v>
       </c>
     </row>
     <row r="3">
@@ -742,75 +744,78 @@
         <v>295</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L3" t="n">
+        <v>18</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Dry</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>12500</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="n">
         <v>15</v>
       </c>
-      <c r="M3" t="n">
-        <v>995</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>12000</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>35</v>
-      </c>
       <c r="R3" t="inlineStr">
         <is>
+          <t>On</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>Off</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
       <c r="T3" t="n">
-        <v>561</v>
+        <v>411</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>15650(c)</t>
+          <t>15650(s)</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>96.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="W3" t="n">
-        <v>106.9</v>
+        <v>107.35</v>
       </c>
       <c r="X3" t="n">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="Y3" t="n">
-        <v>460</v>
+        <v>497</v>
       </c>
       <c r="Z3" t="n">
-        <v>757</v>
+        <v>710</v>
       </c>
       <c r="AA3" t="n">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="AB3" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="AC3" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AD3" t="n">
-        <v>88</v>
+        <v>101</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="4">
@@ -847,78 +852,81 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Dry</t>
+          <t>Wet</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="P4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
+          <t>Off</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>On</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
       <c r="T4" t="n">
-        <v>411</v>
+        <v>261</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>15650(s)</t>
+          <t>15650(c)</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>97.34999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="W4" t="n">
-        <v>107.35</v>
+        <v>107.05</v>
       </c>
       <c r="X4" t="n">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="Y4" t="n">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="Z4" t="n">
-        <v>710</v>
+        <v>734</v>
       </c>
       <c r="AA4" t="n">
-        <v>725</v>
+        <v>807</v>
       </c>
       <c r="AB4" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="n">
+        <v>86</v>
+      </c>
+      <c r="AD4" t="n">
         <v>91</v>
       </c>
-      <c r="AD4" t="n">
-        <v>101</v>
+      <c r="AE4" t="n">
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -955,19 +963,19 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M5" t="n">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -975,10 +983,10 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>13000</v>
+        <v>13900</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="n">
         <v>35</v>
@@ -990,43 +998,46 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>261</v>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>15650(c)</t>
+        <v>-39</v>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>15650(c)*^</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>97.05</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="W5" t="n">
-        <v>107.05</v>
+        <v>91.45</v>
       </c>
       <c r="X5" t="n">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="Y5" t="n">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="Z5" t="n">
-        <v>734</v>
+        <v>811</v>
       </c>
       <c r="AA5" t="n">
-        <v>807</v>
+        <v>766</v>
       </c>
       <c r="AB5" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AC5" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AD5" t="n">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="6">
@@ -1063,19 +1074,19 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>305</v>
+        <v>105</v>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>9</v>
+        <v>-13</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="M6" t="n">
-        <v>1010</v>
+        <v>1020</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -1083,58 +1094,61 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>13500</v>
+        <v>14300</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>111</v>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>15650(s)</t>
+        <v>-189</v>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>15650(c)*^</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>97.5</v>
+        <v>94.34999999999999</v>
       </c>
       <c r="W6" t="n">
-        <v>107.5</v>
+        <v>102.45</v>
       </c>
       <c r="X6" t="n">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="Y6" t="n">
-        <v>540</v>
+        <v>586</v>
       </c>
       <c r="Z6" t="n">
-        <v>665</v>
+        <v>837</v>
       </c>
       <c r="AA6" t="n">
-        <v>772</v>
+        <v>920</v>
       </c>
       <c r="AB6" t="n">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="AC6" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AD6" t="n">
-        <v>105</v>
+        <v>94</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5.03</v>
       </c>
     </row>
     <row r="7">
@@ -1171,78 +1185,81 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="J7" t="n">
+        <v>10</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>28</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1030</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Dry</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>15100</v>
+      </c>
+      <c r="P7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q7" t="n">
         <v>15</v>
       </c>
-      <c r="K7" t="n">
-        <v>13</v>
-      </c>
-      <c r="L7" t="n">
-        <v>42</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1015</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
-        <v>13900</v>
-      </c>
-      <c r="P7" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>35</v>
-      </c>
       <c r="R7" t="inlineStr">
         <is>
+          <t>On</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>Off</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
       <c r="T7" t="n">
-        <v>-39</v>
+        <v>-489</v>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>15650(c)^</t>
+          <t>15650(s)*^</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>84.15000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="W7" t="n">
-        <v>91.45</v>
+        <v>100.35</v>
       </c>
       <c r="X7" t="n">
-        <v>452</v>
+        <v>516</v>
       </c>
       <c r="Y7" t="n">
-        <v>494</v>
+        <v>627</v>
       </c>
       <c r="Z7" t="n">
-        <v>811</v>
+        <v>895</v>
       </c>
       <c r="AA7" t="n">
-        <v>766</v>
+        <v>831</v>
       </c>
       <c r="AB7" t="n">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="AC7" t="n">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="AD7" t="n">
-        <v>93</v>
+        <v>112</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>4.71</v>
       </c>
     </row>
     <row r="8">
@@ -1251,27 +1268,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>YSSY</t>
+          <t>YSCB</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>34L</t>
-        </is>
+          <t>Canberra</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>35</v>
       </c>
       <c r="E8" t="n">
-        <v>21</v>
+        <v>1886</v>
       </c>
       <c r="F8" t="n">
-        <v>3962</v>
+        <v>2683</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1279,19 +1294,19 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>105</v>
+        <v>340</v>
       </c>
       <c r="J8" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>-13</v>
+        <v>15</v>
       </c>
       <c r="L8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8" t="n">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -1299,13 +1314,13 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>14300</v>
+        <v>11500</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -1318,39 +1333,42 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>-189</v>
-      </c>
-      <c r="U8" s="2" t="inlineStr">
-        <is>
-          <t>15650(c)^</t>
+        <v>1376</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>15650(s)</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>94.34999999999999</v>
+        <v>90.63</v>
       </c>
       <c r="W8" t="n">
-        <v>102.45</v>
+        <v>98.28</v>
       </c>
       <c r="X8" t="n">
         <v>458</v>
       </c>
       <c r="Y8" t="n">
-        <v>586</v>
+        <v>414</v>
       </c>
       <c r="Z8" t="n">
-        <v>837</v>
+        <v>591</v>
       </c>
       <c r="AA8" t="n">
-        <v>920</v>
+        <v>686</v>
       </c>
       <c r="AB8" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC8" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD8" t="n">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>7.46</v>
       </c>
     </row>
     <row r="9">
@@ -1359,27 +1377,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>YSSY</t>
+          <t>YSCB</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>34L</t>
-        </is>
+          <t>Canberra</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>35</v>
       </c>
       <c r="E9" t="n">
-        <v>21</v>
+        <v>1886</v>
       </c>
       <c r="F9" t="n">
-        <v>3962</v>
+        <v>2683</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1387,19 +1403,19 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>105</v>
+        <v>330</v>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K9" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="L9" t="n">
-        <v>21</v>
+        <v>-6</v>
       </c>
       <c r="M9" t="n">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1407,30 +1423,30 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>14700</v>
+        <v>13000</v>
       </c>
       <c r="P9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>On</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>On</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>-339</v>
-      </c>
-      <c r="U9" s="2" t="inlineStr">
-        <is>
-          <t>15650(c)^</t>
+        <v>1826</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>15650(s)</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1440,25 +1456,28 @@
         <v>107.5</v>
       </c>
       <c r="X9" t="n">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="Y9" t="n">
-        <v>780</v>
+        <v>531</v>
       </c>
       <c r="Z9" t="n">
-        <v>1282</v>
+        <v>752</v>
       </c>
       <c r="AA9" t="n">
-        <v>1120</v>
+        <v>872</v>
       </c>
       <c r="AB9" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AC9" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AD9" t="n">
-        <v>95</v>
+        <v>103</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>8.01</v>
       </c>
     </row>
     <row r="10">
@@ -1467,27 +1486,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>YSSY</t>
+          <t>YSCB</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>34L</t>
-        </is>
+          <t>Canberra</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>35</v>
       </c>
       <c r="E10" t="n">
-        <v>21</v>
+        <v>1886</v>
       </c>
       <c r="F10" t="n">
-        <v>3962</v>
+        <v>2683</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1495,30 +1512,30 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>295</v>
+        <v>100</v>
       </c>
       <c r="J10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>-9</v>
       </c>
       <c r="L10" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M10" t="n">
-        <v>1030</v>
+        <v>995</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Dry</t>
+          <t>Wet</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>15100</v>
+        <v>14700</v>
       </c>
       <c r="P10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q10" t="n">
         <v>15</v>
@@ -1534,39 +1551,42 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>-489</v>
-      </c>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>15650(s)^</t>
+        <v>2426</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>15650(s)</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>97.5</v>
+        <v>92.29000000000001</v>
       </c>
       <c r="W10" t="n">
-        <v>107.5</v>
+        <v>99.92</v>
       </c>
       <c r="X10" t="n">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="Y10" t="n">
-        <v>627</v>
+        <v>784</v>
       </c>
       <c r="Z10" t="n">
-        <v>895</v>
+        <v>1289</v>
       </c>
       <c r="AA10" t="n">
-        <v>831</v>
+        <v>1151</v>
       </c>
       <c r="AB10" t="n">
         <v>114</v>
       </c>
       <c r="AC10" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AD10" t="n">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5.28</v>
       </c>
     </row>
     <row r="11">
@@ -1575,27 +1595,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>YSSY</t>
+          <t>YSCB</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>34L</t>
-        </is>
+          <t>Canberra</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>35</v>
       </c>
       <c r="E11" t="n">
-        <v>21</v>
+        <v>1886</v>
       </c>
       <c r="F11" t="n">
-        <v>3962</v>
+        <v>2683</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1603,78 +1621,81 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>295</v>
+        <v>350</v>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>17</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1010</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Dry</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>13500</v>
+      </c>
+      <c r="P11" t="n">
         <v>11</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1035</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O11" t="n">
-        <v>15650</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>35</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>-639</v>
-      </c>
-      <c r="U11" s="2" t="inlineStr">
-        <is>
-          <t>15650(c)^</t>
+        <v>1976</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>15650(c)</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="W11" t="n">
         <v>107.4</v>
       </c>
       <c r="X11" t="n">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="Y11" t="n">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="Z11" t="n">
-        <v>747</v>
+        <v>797</v>
       </c>
       <c r="AA11" t="n">
-        <v>822</v>
+        <v>691</v>
       </c>
       <c r="AB11" t="n">
         <v>98</v>
       </c>
       <c r="AC11" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AD11" t="n">
-        <v>98</v>
+        <v>92</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>6.67</v>
       </c>
     </row>
     <row r="12">
@@ -1709,19 +1730,19 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>15</v>
+        <v>-3</v>
       </c>
       <c r="L12" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="M12" t="n">
-        <v>1030</v>
+        <v>990</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1729,13 +1750,13 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>11500</v>
+        <v>15650</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1744,43 +1765,46 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>On</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>1376</v>
+        <v>2576</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>15650(s)</t>
+          <t>15650(c)</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>90.63</v>
+        <v>97.5</v>
       </c>
       <c r="W12" t="n">
-        <v>98.28</v>
+        <v>107.4</v>
       </c>
       <c r="X12" t="n">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="Y12" t="n">
-        <v>414</v>
+        <v>566</v>
       </c>
       <c r="Z12" t="n">
-        <v>591</v>
+        <v>735</v>
       </c>
       <c r="AA12" t="n">
-        <v>686</v>
+        <v>809</v>
       </c>
       <c r="AB12" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AC12" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AD12" t="n">
         <v>98</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>4.15</v>
       </c>
     </row>
     <row r="13">
@@ -1789,60 +1813,60 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>YSCB</t>
+          <t>YARM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Armidale</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E13" t="n">
-        <v>1886</v>
+        <v>3556</v>
       </c>
       <c r="F13" t="n">
-        <v>2683</v>
+        <v>1738</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Grooved</t>
+          <t>Ungrooved</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>995</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Wet</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>11500</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>15</v>
       </c>
-      <c r="M13" t="n">
-        <v>1025</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O13" t="n">
-        <v>12000</v>
-      </c>
-      <c r="P13" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>35</v>
-      </c>
       <c r="R13" t="inlineStr">
         <is>
           <t>On</t>
@@ -1850,43 +1874,46 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>On</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>1526</v>
+        <v>4096</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>15650(c)</t>
+          <t>15650(s)</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>97.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="W13" t="n">
-        <v>107.1</v>
+        <v>107.4</v>
       </c>
       <c r="X13" t="n">
-        <v>435</v>
+        <v>471</v>
       </c>
       <c r="Y13" t="n">
-        <v>464</v>
+        <v>573</v>
       </c>
       <c r="Z13" t="n">
-        <v>762</v>
+        <v>811</v>
       </c>
       <c r="AA13" t="n">
-        <v>683</v>
+        <v>941</v>
       </c>
       <c r="AB13" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AC13" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AD13" t="n">
-        <v>88</v>
+        <v>98</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>9.34</v>
       </c>
     </row>
     <row r="14">
@@ -1895,95 +1922,95 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>YSCB</t>
+          <t>YARM</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Armidale</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E14" t="n">
-        <v>1886</v>
+        <v>3556</v>
       </c>
       <c r="F14" t="n">
-        <v>2683</v>
+        <v>1738</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Grooved</t>
+          <t>Ungrooved</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L14" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Dry</t>
+          <t>Wet</t>
         </is>
       </c>
       <c r="O14" t="n">
         <v>12500</v>
       </c>
       <c r="P14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>15</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>On</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>On</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>1676</v>
+        <v>3796</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>14622(c)</t>
+          <t>15650(s)</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>80.13</v>
+        <v>97.5</v>
       </c>
       <c r="W14" t="n">
-        <v>86.87</v>
+        <v>106.46</v>
       </c>
       <c r="X14" t="n">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="Y14" t="n">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="Z14" t="n">
-        <v>837</v>
+        <v>801</v>
       </c>
       <c r="AA14" t="n">
-        <v>788</v>
+        <v>929</v>
       </c>
       <c r="AB14" t="n">
         <v>101</v>
@@ -1993,6 +2020,9 @@
       </c>
       <c r="AD14" t="n">
         <v>101</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>7.74</v>
       </c>
     </row>
     <row r="15">
@@ -2001,49 +2031,49 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>YSCB</t>
+          <t>YARM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Armidale</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E15" t="n">
-        <v>1886</v>
+        <v>3556</v>
       </c>
       <c r="F15" t="n">
-        <v>2683</v>
+        <v>1738</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Grooved</t>
+          <t>Ungrooved</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>330</v>
+        <v>118</v>
       </c>
       <c r="J15" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>10</v>
+        <v>-9</v>
       </c>
       <c r="L15" t="n">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="M15" t="n">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Wet</t>
+          <t>Dry</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -2053,52 +2083,55 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1826</v>
+        <v>3646</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>15650(s)</t>
+          <t>15650(c)</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>97.5</v>
+        <v>96.97</v>
       </c>
       <c r="W15" t="n">
-        <v>107.5</v>
+        <v>105.57</v>
       </c>
       <c r="X15" t="n">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="Y15" t="n">
-        <v>531</v>
+        <v>570</v>
       </c>
       <c r="Z15" t="n">
-        <v>752</v>
+        <v>814</v>
       </c>
       <c r="AA15" t="n">
-        <v>872</v>
+        <v>895</v>
       </c>
       <c r="AB15" t="n">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="AC15" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AD15" t="n">
-        <v>103</v>
+        <v>91</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>6.95</v>
       </c>
     </row>
     <row r="16">
@@ -2107,56 +2140,56 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>YSCB</t>
+          <t>YARM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Armidale</t>
         </is>
       </c>
       <c r="D16" t="n">
+        <v>23</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3556</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1738</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Ungrooved</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>118</v>
+      </c>
+      <c r="J16" t="n">
         <v>35</v>
       </c>
-      <c r="E16" t="n">
-        <v>1886</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2683</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>350</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5</v>
-      </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>-11</v>
       </c>
       <c r="L16" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M16" t="n">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Dry</t>
+          <t>Wet</t>
         </is>
       </c>
       <c r="O16" t="n">
         <v>13500</v>
       </c>
       <c r="P16" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>35</v>
@@ -2172,7 +2205,7 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1976</v>
+        <v>3496</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -2180,31 +2213,34 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>97.40000000000001</v>
+        <v>86.45999999999999</v>
       </c>
       <c r="W16" t="n">
-        <v>107.4</v>
+        <v>93.76000000000001</v>
       </c>
       <c r="X16" t="n">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="Y16" t="n">
-        <v>558</v>
+        <v>601</v>
       </c>
       <c r="Z16" t="n">
-        <v>797</v>
+        <v>987</v>
       </c>
       <c r="AA16" t="n">
-        <v>691</v>
+        <v>1086</v>
       </c>
       <c r="AB16" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="AC16" t="n">
         <v>87</v>
       </c>
       <c r="AD16" t="n">
         <v>92</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>4.14</v>
       </c>
     </row>
     <row r="17">
@@ -2213,49 +2249,49 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>YSCB</t>
+          <t>YARM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Armidale</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E17" t="n">
-        <v>1886</v>
+        <v>3556</v>
       </c>
       <c r="F17" t="n">
-        <v>2683</v>
+        <v>1738</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Grooved</t>
+          <t>Ungrooved</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K17" t="n">
-        <v>-7</v>
+        <v>22</v>
       </c>
       <c r="L17" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M17" t="n">
-        <v>1005</v>
+        <v>1020</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Wet</t>
+          <t>Dry</t>
         </is>
       </c>
       <c r="O17" t="n">
@@ -2265,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -2278,39 +2314,42 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2126</v>
+        <v>3346</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>15650(s)</t>
+          <t>15650(c)</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>97.5</v>
+        <v>66.89</v>
       </c>
       <c r="W17" t="n">
-        <v>107.5</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="X17" t="n">
-        <v>510</v>
+        <v>478</v>
       </c>
       <c r="Y17" t="n">
-        <v>660</v>
+        <v>480</v>
       </c>
       <c r="Z17" t="n">
-        <v>934</v>
+        <v>624</v>
       </c>
       <c r="AA17" t="n">
-        <v>1084</v>
+        <v>686</v>
       </c>
       <c r="AB17" t="n">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="AC17" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="AD17" t="n">
-        <v>107</v>
+        <v>93</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="18">
@@ -2319,85 +2358,108 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>YSCB</t>
+          <t>YARM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Armidale</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E18" t="n">
-        <v>1886</v>
+        <v>3556</v>
       </c>
       <c r="F18" t="n">
-        <v>2683</v>
+        <v>1738</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Grooved</t>
+          <t>Ungrooved</t>
         </is>
       </c>
       <c r="I18" t="n">
+        <v>128</v>
+      </c>
+      <c r="J18" t="n">
+        <v>15</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-9</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1030</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Dry</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>14700</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>15</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>On</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>On</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>3046</v>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>15650(s)*^</t>
+        </is>
+      </c>
+      <c r="V18" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>543</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>683</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>841</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>976</v>
+      </c>
+      <c r="AB18" t="n">
         <v>110</v>
       </c>
-      <c r="J18" t="n">
-        <v>40</v>
-      </c>
-      <c r="K18" s="3" t="inlineStr">
-        <is>
-          <t>-21*</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>45</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O18" t="n">
-        <v>14300</v>
-      </c>
-      <c r="P18" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>35</v>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="T18" t="n">
-        <v>2276</v>
-      </c>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
+      <c r="AC18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5.39</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2405,63 +2467,63 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>YSCB</t>
+          <t>YARM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Armidale</t>
         </is>
       </c>
       <c r="D19" t="n">
+        <v>23</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3556</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1738</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Ungrooved</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>118</v>
+      </c>
+      <c r="J19" t="n">
+        <v>20</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-6</v>
+      </c>
+      <c r="L19" t="n">
+        <v>13</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1035</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Wet</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>15650</v>
+      </c>
+      <c r="P19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q19" t="n">
         <v>35</v>
       </c>
-      <c r="E19" t="n">
-        <v>1886</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2683</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>100</v>
-      </c>
-      <c r="J19" t="n">
-        <v>25</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-9</v>
-      </c>
-      <c r="L19" t="n">
-        <v>20</v>
-      </c>
-      <c r="M19" t="n">
-        <v>995</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O19" t="n">
-        <v>14700</v>
-      </c>
-      <c r="P19" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>15</v>
-      </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2470,39 +2532,42 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2426</v>
+        <v>2896</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>15650(s)</t>
+          <t>15650(c)</t>
         </is>
       </c>
       <c r="V19" t="n">
         <v>97.5</v>
       </c>
       <c r="W19" t="n">
-        <v>107.35</v>
+        <v>107.5</v>
       </c>
       <c r="X19" t="n">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="Y19" t="n">
-        <v>784</v>
+        <v>739</v>
       </c>
       <c r="Z19" t="n">
-        <v>1289</v>
+        <v>1214</v>
       </c>
       <c r="AA19" t="n">
-        <v>1151</v>
+        <v>1068</v>
       </c>
       <c r="AB19" t="n">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="AC19" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="AD19" t="n">
-        <v>110</v>
+        <v>98</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>4.05</v>
       </c>
     </row>
     <row r="20">
@@ -2511,25 +2576,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>YSCB</t>
+          <t>YLHI</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Lord Howe Island</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E20" t="n">
-        <v>1886</v>
+        <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>2683</v>
+        <v>1936</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2537,16 +2602,16 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M20" t="n">
         <v>990</v>
@@ -2560,7 +2625,7 @@
         <v>15650</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
         <v>35</v>
@@ -2572,11 +2637,11 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2576</v>
+        <v>707</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2584,22 +2649,22 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="W20" t="n">
         <v>107.4</v>
       </c>
       <c r="X20" t="n">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="Y20" t="n">
-        <v>566</v>
+        <v>529</v>
       </c>
       <c r="Z20" t="n">
-        <v>735</v>
+        <v>756</v>
       </c>
       <c r="AA20" t="n">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="AB20" t="n">
         <v>98</v>
@@ -2609,6 +2674,9 @@
       </c>
       <c r="AD20" t="n">
         <v>98</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="21">
@@ -2617,45 +2685,45 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>YARM</t>
+          <t>YLHI</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Armidale</t>
+          <t>Lord Howe Island</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E21" t="n">
-        <v>3556</v>
+        <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>1738</v>
+        <v>1936</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Ungrooved</t>
+          <t>Grooved</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L21" t="n">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>995</v>
+        <v>1030</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -2663,58 +2731,61 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>11500</v>
+        <v>13892</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
+          <t>Off</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
           <t>On</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
       <c r="T21" t="n">
-        <v>4096</v>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>15650(s)</t>
+        <v>-493</v>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>15650(c)*^</t>
         </is>
       </c>
       <c r="V21" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="W21" t="n">
-        <v>107.4</v>
+        <v>107.15</v>
       </c>
       <c r="X21" t="n">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="Y21" t="n">
-        <v>573</v>
+        <v>452</v>
       </c>
       <c r="Z21" t="n">
-        <v>811</v>
+        <v>675</v>
       </c>
       <c r="AA21" t="n">
-        <v>941</v>
+        <v>742</v>
       </c>
       <c r="AB21" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AC21" t="n">
         <v>88</v>
       </c>
       <c r="AD21" t="n">
-        <v>98</v>
+        <v>93</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>6.97</v>
       </c>
     </row>
     <row r="22">
@@ -2723,45 +2794,45 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>YARM</t>
+          <t>YLHI</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Armidale</t>
+          <t>Lord Howe Island</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E22" t="n">
-        <v>3556</v>
+        <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>1738</v>
+        <v>1936</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Ungrooved</t>
+          <t>Grooved</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="L22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1000</v>
+        <v>1018</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -2769,17 +2840,17 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>12000</v>
+        <v>13800</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>On</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2788,39 +2859,42 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3946</v>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>15650(c)</t>
+        <v>-133</v>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>15650(s)*^</t>
         </is>
       </c>
       <c r="V22" t="n">
-        <v>96.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="W22" t="n">
-        <v>106.9</v>
+        <v>107.5</v>
       </c>
       <c r="X22" t="n">
-        <v>447</v>
+        <v>489</v>
       </c>
       <c r="Y22" t="n">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="Z22" t="n">
-        <v>727</v>
+        <v>622</v>
       </c>
       <c r="AA22" t="n">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="AB22" t="n">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="AC22" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="AD22" t="n">
-        <v>88</v>
+        <v>107</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>7.35</v>
       </c>
     </row>
     <row r="23">
@@ -2829,1482 +2903,107 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>YARM</t>
+          <t>YLHI</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Armidale</t>
+          <t>Lord Howe Island</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E23" t="n">
-        <v>3556</v>
+        <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>1738</v>
+        <v>1936</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Ungrooved</t>
+          <t>Grooved</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>228</v>
+        <v>30</v>
       </c>
       <c r="J23" t="n">
         <v>10</v>
       </c>
       <c r="K23" t="n">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="L23" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="M23" t="n">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Wet</t>
+          <t>Dry</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>12500</v>
+        <v>11700</v>
       </c>
       <c r="P23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q23" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3796</v>
+        <v>437</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>15650(s)</t>
+          <t>15650(c)</t>
         </is>
       </c>
       <c r="V23" t="n">
-        <v>97.5</v>
+        <v>79.58</v>
       </c>
       <c r="W23" t="n">
-        <v>107.5</v>
+        <v>86.26000000000001</v>
       </c>
       <c r="X23" t="n">
-        <v>493</v>
+        <v>420</v>
       </c>
       <c r="Y23" t="n">
-        <v>566</v>
+        <v>524</v>
       </c>
       <c r="Z23" t="n">
-        <v>910</v>
+        <v>749</v>
       </c>
       <c r="AA23" t="n">
-        <v>929</v>
+        <v>700</v>
       </c>
       <c r="AB23" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AC23" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AD23" t="n">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>YARM</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Armidale</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>23</v>
-      </c>
-      <c r="E24" t="n">
-        <v>3556</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1738</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Ungrooved</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>118</v>
-      </c>
-      <c r="J24" t="n">
-        <v>30</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-9</v>
-      </c>
-      <c r="L24" t="n">
-        <v>16</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1010</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O24" t="n">
-        <v>13000</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>35</v>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="T24" t="n">
-        <v>3646</v>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>15650(c)</t>
-        </is>
-      </c>
-      <c r="V24" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="W24" t="n">
-        <v>105.57</v>
-      </c>
-      <c r="X24" t="n">
-        <v>463</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>570</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>814</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>895</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>86</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>86</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>YARM</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Armidale</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>23</v>
-      </c>
-      <c r="E25" t="n">
-        <v>3556</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1738</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Ungrooved</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>118</v>
-      </c>
-      <c r="J25" t="n">
-        <v>35</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-11</v>
-      </c>
-      <c r="L25" t="n">
-        <v>28</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1015</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O25" t="n">
-        <v>13500</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>35</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="T25" t="n">
-        <v>3496</v>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>15650(c)</t>
-        </is>
-      </c>
-      <c r="V25" t="n">
-        <v>86.45999999999999</v>
-      </c>
-      <c r="W25" t="n">
-        <v>93.76000000000001</v>
-      </c>
-      <c r="X25" t="n">
-        <v>472</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>601</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>987</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1086</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>87</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>87</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>YARM</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Armidale</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>23</v>
-      </c>
-      <c r="E26" t="n">
-        <v>3556</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1738</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Ungrooved</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>198</v>
-      </c>
-      <c r="J26" t="n">
-        <v>25</v>
-      </c>
-      <c r="K26" t="n">
-        <v>22</v>
-      </c>
-      <c r="L26" t="n">
-        <v>40</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1020</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O26" t="n">
-        <v>13900</v>
-      </c>
-      <c r="P26" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>35</v>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="T26" t="n">
-        <v>3346</v>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>15650(c)</t>
-        </is>
-      </c>
-      <c r="V26" t="n">
-        <v>75.81</v>
-      </c>
-      <c r="W26" t="n">
-        <v>81.97</v>
-      </c>
-      <c r="X26" t="n">
-        <v>478</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>480</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>727</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>686</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>93</v>
-      </c>
-      <c r="AC26" t="n">
         <v>88</v>
       </c>
-      <c r="AD26" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>YARM</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Armidale</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>23</v>
-      </c>
-      <c r="E27" t="n">
-        <v>3556</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1738</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Ungrooved</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>208</v>
-      </c>
-      <c r="J27" t="n">
-        <v>15</v>
-      </c>
-      <c r="K27" t="n">
-        <v>14</v>
-      </c>
-      <c r="L27" t="n">
-        <v>10</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1025</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O27" t="n">
-        <v>14300</v>
-      </c>
-      <c r="P27" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>15</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="T27" t="n">
-        <v>3196</v>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>15650(s)</t>
-        </is>
-      </c>
-      <c r="V27" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="W27" t="n">
-        <v>107.5</v>
-      </c>
-      <c r="X27" t="n">
-        <v>534</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>606</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>995</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>987</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>106</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>98</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>YARM</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Armidale</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>23</v>
-      </c>
-      <c r="E28" t="n">
-        <v>3556</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1738</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Ungrooved</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>128</v>
-      </c>
-      <c r="J28" t="n">
-        <v>15</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-2</v>
-      </c>
-      <c r="L28" t="n">
-        <v>-9</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1030</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O28" t="n">
-        <v>14700</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>15</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="T28" t="n">
-        <v>3046</v>
-      </c>
-      <c r="U28" s="2" t="inlineStr">
-        <is>
-          <t>15650(s)^</t>
-        </is>
-      </c>
-      <c r="V28" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="W28" t="n">
-        <v>107.5</v>
-      </c>
-      <c r="X28" t="n">
-        <v>543</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>683</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>841</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>976</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>110</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>YARM</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Armidale</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>23</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3556</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1738</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Ungrooved</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>118</v>
-      </c>
-      <c r="J29" t="n">
-        <v>20</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-6</v>
-      </c>
-      <c r="L29" t="n">
-        <v>13</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1035</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O29" t="n">
-        <v>15650</v>
-      </c>
-      <c r="P29" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>35</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="T29" t="n">
-        <v>2896</v>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>15650(c)</t>
-        </is>
-      </c>
-      <c r="V29" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="W29" t="n">
-        <v>107.5</v>
-      </c>
-      <c r="X29" t="n">
-        <v>509</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>739</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1214</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1068</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>104</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>93</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>YLHI</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Lord Howe Island</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>28</v>
-      </c>
-      <c r="E30" t="n">
-        <v>17</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1936</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>15</v>
-      </c>
-      <c r="M30" t="n">
-        <v>990</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O30" t="n">
-        <v>15650</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>35</v>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="T30" t="n">
-        <v>707</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>15650(c)</t>
-        </is>
-      </c>
-      <c r="V30" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="W30" t="n">
-        <v>107.4</v>
-      </c>
-      <c r="X30" t="n">
-        <v>477</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>529</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>756</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>749</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>98</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>93</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>YLHI</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Lord Howe Island</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>28</v>
-      </c>
-      <c r="E31" t="n">
-        <v>17</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1936</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>270</v>
-      </c>
-      <c r="J31" t="n">
-        <v>15</v>
-      </c>
-      <c r="K31" t="n">
-        <v>15</v>
-      </c>
-      <c r="L31" t="n">
-        <v>17</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1005</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O31" t="n">
-        <v>15088</v>
-      </c>
-      <c r="P31" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>35</v>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="T31" t="n">
-        <v>257</v>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>15650(c)</t>
-        </is>
-      </c>
-      <c r="V31" t="n">
-        <v>97.45</v>
-      </c>
-      <c r="W31" t="n">
-        <v>107.45</v>
-      </c>
-      <c r="X31" t="n">
-        <v>469</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>495</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>708</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>672</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>99</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>92</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>YLHI</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Lord Howe Island</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>28</v>
-      </c>
-      <c r="E32" t="n">
-        <v>17</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1936</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>250</v>
-      </c>
-      <c r="J32" t="n">
-        <v>20</v>
-      </c>
-      <c r="K32" t="n">
-        <v>17</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1013</v>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O32" t="n">
-        <v>14260</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>35</v>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="T32" t="n">
-        <v>17</v>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>15650(c)</t>
-        </is>
-      </c>
-      <c r="V32" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="W32" t="n">
-        <v>107.2</v>
-      </c>
-      <c r="X32" t="n">
-        <v>458</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>453</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>676</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>744</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>94</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>89</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>YLHI</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Lord Howe Island</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>28</v>
-      </c>
-      <c r="E33" t="n">
-        <v>17</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1936</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>240</v>
-      </c>
-      <c r="J33" t="n">
-        <v>20</v>
-      </c>
-      <c r="K33" t="n">
-        <v>15</v>
-      </c>
-      <c r="L33" t="n">
-        <v>9</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1030</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O33" t="n">
-        <v>13892</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>35</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="T33" t="n">
-        <v>-493</v>
-      </c>
-      <c r="U33" s="2" t="inlineStr">
-        <is>
-          <t>15650(c)^</t>
-        </is>
-      </c>
-      <c r="V33" t="n">
-        <v>97.15000000000001</v>
-      </c>
-      <c r="W33" t="n">
-        <v>107.15</v>
-      </c>
-      <c r="X33" t="n">
-        <v>452</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>452</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>675</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>742</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>93</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>88</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>YLHI</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Lord Howe Island</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>28</v>
-      </c>
-      <c r="E34" t="n">
-        <v>17</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1936</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>240</v>
-      </c>
-      <c r="J34" t="n">
-        <v>25</v>
-      </c>
-      <c r="K34" t="n">
-        <v>19</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1018</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O34" t="n">
-        <v>13800</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>15</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="T34" t="n">
-        <v>-133</v>
-      </c>
-      <c r="U34" s="2" t="inlineStr">
-        <is>
-          <t>15650(s)^</t>
-        </is>
-      </c>
-      <c r="V34" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="W34" t="n">
-        <v>107.5</v>
-      </c>
-      <c r="X34" t="n">
-        <v>489</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>505</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>622</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>722</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>107</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>97</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>YLHI</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Lord Howe Island</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>28</v>
-      </c>
-      <c r="E35" t="n">
-        <v>17</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1936</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>230</v>
-      </c>
-      <c r="J35" t="n">
-        <v>15</v>
-      </c>
-      <c r="K35" t="n">
-        <v>10</v>
-      </c>
-      <c r="L35" t="n">
-        <v>5</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1020</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O35" t="n">
-        <v>12600</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>15</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="T35" t="n">
-        <v>-193</v>
-      </c>
-      <c r="U35" s="2" t="inlineStr">
-        <is>
-          <t>15650(s)^</t>
-        </is>
-      </c>
-      <c r="V35" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="W35" t="n">
-        <v>107.5</v>
-      </c>
-      <c r="X35" t="n">
-        <v>463</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>505</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>622</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>722</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>103</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>93</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>YLHI</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Lord Howe Island</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>28</v>
-      </c>
-      <c r="E36" t="n">
-        <v>17</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1936</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>30</v>
-      </c>
-      <c r="J36" t="n">
-        <v>10</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L36" t="n">
-        <v>45</v>
-      </c>
-      <c r="M36" t="n">
-        <v>999</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O36" t="n">
-        <v>11700</v>
-      </c>
-      <c r="P36" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>35</v>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="T36" t="n">
-        <v>437</v>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>15650(c)</t>
-        </is>
-      </c>
-      <c r="V36" t="n">
-        <v>79.58</v>
-      </c>
-      <c r="W36" t="n">
-        <v>86.26000000000001</v>
-      </c>
-      <c r="X36" t="n">
-        <v>420</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>524</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>749</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>700</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>90</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>83</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>88</v>
+      <c r="AE23" t="n">
+        <v>6.08</v>
       </c>
     </row>
   </sheetData>
